--- a/test/bomdiff1.xlsx
+++ b/test/bomdiff1.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="bom-slsc-ht_digital" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -624,7 +624,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
